--- a/biology/Zoologie/Cosmophasis/Cosmophasis.xlsx
+++ b/biology/Zoologie/Cosmophasis/Cosmophasis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cosmophasis est un genre d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cosmophasis est un genre d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Afrique et en Asie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Afrique et en Asie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 02/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 02/02/2024) :
 Cosmophasis albipes Berland &amp; Millot, 1941
 Cosmophasis albomaculata Schenkel, 1944
 Cosmophasis ambonensis Hurni-Cranston &amp; Hill, 2021
@@ -632,10 +648,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sobara[2] Keyserling, 1882, préoccupé par Sobara Loew, 1855, a été remplacé par Cosmophasis par Simon en 1901[3].
-Selaophora[2] et Vellutus[4] ont été placés en synonymie par Simon en 1901[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sobara Keyserling, 1882, préoccupé par Sobara Loew, 1855, a été remplacé par Cosmophasis par Simon en 1901.
+Selaophora et Vellutus ont été placés en synonymie par Simon en 1901.
 </t>
         </is>
       </c>
@@ -664,7 +682,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1901 : Histoire naturelle des araignées. Paris, vol. 2, p. 381-668 (intégral).</t>
         </is>
